--- a/data_input/data_structure.xlsx
+++ b/data_input/data_structure.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" activeTab="1"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" sheetId="1" r:id="rId1"/>
-    <sheet name="raw" sheetId="5" r:id="rId2"/>
+    <sheet name="model" sheetId="7" r:id="rId1"/>
+    <sheet name="ramses" sheetId="5" r:id="rId2"/>
+    <sheet name="opsd" sheetId="8" r:id="rId3"/>
+    <sheet name="ieee" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,50 +27,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="99">
-  <si>
-    <t xml:space="preserve">Attribute </t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="82">
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>Dict(t, value)</t>
-  </si>
-  <si>
     <t>nodes</t>
   </si>
   <si>
     <t>plants</t>
   </si>
   <si>
-    <t>Array[Plant.index]</t>
-  </si>
-  <si>
-    <t>Array[Node.index]</t>
-  </si>
-  <si>
     <t>net_position</t>
   </si>
   <si>
     <t>zone</t>
   </si>
   <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
     <t>slack</t>
   </si>
   <si>
@@ -78,21 +53,9 @@
     <t>net_export</t>
   </si>
   <si>
-    <t>Heatarea</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
     <t>node</t>
   </si>
   <si>
-    <t>mc</t>
-  </si>
-  <si>
-    <t>Float64</t>
-  </si>
-  <si>
     <t>g_max</t>
   </si>
   <si>
@@ -105,24 +68,6 @@
     <t>heatarea</t>
   </si>
   <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>ptdf</t>
-  </si>
-  <si>
-    <t>Vector{Float64}</t>
-  </si>
-  <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>reference_flow</t>
-  </si>
-  <si>
-    <t>DC_Line</t>
-  </si>
-  <si>
     <t>node_i</t>
   </si>
   <si>
@@ -135,30 +80,9 @@
     <t>availability</t>
   </si>
   <si>
-    <t>slack_zone</t>
-  </si>
-  <si>
-    <t>Zone.index</t>
-  </si>
-  <si>
-    <t>Node.index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional Attribute </t>
-  </si>
-  <si>
     <t>ntc</t>
   </si>
   <si>
-    <t>Dict(zone.index, value)</t>
-  </si>
-  <si>
-    <t>Optional Attributes</t>
-  </si>
-  <si>
-    <t>Heatarea.index</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -255,9 +179,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -322,13 +243,43 @@
   </si>
   <si>
     <t>mc_heat</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>fuel_price</t>
+  </si>
+  <si>
+    <t>timeseries</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>wind onshore</t>
+  </si>
+  <si>
+    <t>wind offshore</t>
+  </si>
+  <si>
+    <t>str</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,14 +287,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,43 +297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF95F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE9FF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,33 +323,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,362 +617,1440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:Q17"/>
+  <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.54296875" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" customWidth="1"/>
+    <col min="26" max="26" width="10.54296875" customWidth="1"/>
+    <col min="27" max="27" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.54296875" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.54296875" customWidth="1"/>
+    <col min="35" max="35" width="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.54296875" customWidth="1"/>
+    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.54296875" customWidth="1"/>
+    <col min="43" max="43" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.54296875" customWidth="1"/>
+    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="U1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="Y1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AC1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+    </row>
+    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="D4" s="9" t="s">
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="G4" s="11" t="s">
+      <c r="AD5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="J4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="M4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="P4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="AH6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
+      <c r="X9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
       <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
         <v>48</v>
       </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
         <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
       <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="V15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
       <c r="J16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="V16" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="4:52" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="4:52" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="4:52" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="4:52" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:52" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="4:52" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="4:52" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="4:52" x14ac:dyDescent="0.35">
+      <c r="AA31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="4:52" x14ac:dyDescent="0.35">
+      <c r="AA32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="W33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="W34" t="s">
+        <v>41</v>
+      </c>
+      <c r="X34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="W35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="W36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T37" t="s">
+        <v>41</v>
+      </c>
+      <c r="W37" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T41" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T42" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T43" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" t="s">
+        <v>41</v>
+      </c>
+      <c r="W43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T44" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" t="s">
+        <v>41</v>
+      </c>
+      <c r="W44" t="s">
+        <v>41</v>
+      </c>
+      <c r="X44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T45" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
+  <mergeCells count="12">
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG25"/>
+  <dimension ref="A1:BG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1102,360 +2067,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="U1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="Y1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AC1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AG1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AK1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AO1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AS1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AW1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="Q1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="U1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="Y1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AC1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AG1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AK1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AO1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AS1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AW1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="BA1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BE1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="BA1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BE1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
     </row>
     <row r="2" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>93</v>
+        <v>34</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="b">
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="b">
         <v>0</v>
       </c>
       <c r="AK3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="b">
         <v>0</v>
       </c>
       <c r="AO3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AQ3" t="b">
         <v>0</v>
       </c>
       <c r="AS3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AU3" t="b">
         <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AY3" t="b">
         <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="BC3" t="b">
         <v>0</v>
       </c>
       <c r="BE3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="BG3" t="b">
         <v>0</v>
@@ -1463,139 +2428,139 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="b">
         <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="b">
         <v>0</v>
       </c>
       <c r="AK4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="b">
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AQ4" t="b">
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="AT4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="AU4" t="b">
         <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AX4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AY4" t="b">
         <v>0</v>
       </c>
       <c r="BA4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="BB4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="BC4" t="b">
         <v>0</v>
       </c>
       <c r="BE4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="BF4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="BG4" t="b">
         <v>0</v>
@@ -1603,139 +2568,139 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S5" t="b">
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="V5" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="Z5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="b">
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="b">
         <v>0</v>
       </c>
       <c r="AK5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AL5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="AM5" t="b">
         <v>0</v>
       </c>
       <c r="AO5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AQ5" t="b">
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="AT5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="AU5" t="b">
         <v>0</v>
       </c>
       <c r="AW5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="AY5" t="b">
         <v>0</v>
       </c>
       <c r="BA5" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="BC5" t="b">
         <v>0</v>
       </c>
       <c r="BE5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BF5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="BG5" t="b">
         <v>0</v>
@@ -1743,139 +2708,139 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="b">
         <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="AD6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
       <c r="AG6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="b">
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="AL6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="b">
         <v>0</v>
       </c>
       <c r="AO6" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AP6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AQ6" t="b">
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AT6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AU6" t="b">
         <v>0</v>
       </c>
       <c r="AW6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AY6" t="b">
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="BB6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="BC6" t="b">
         <v>0</v>
       </c>
       <c r="BE6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BF6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="BG6" t="b">
         <v>0</v>
@@ -1883,1645 +2848,1536 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="V7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="b">
         <v>1</v>
       </c>
       <c r="AQ7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="W8" t="b">
         <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="AD8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
       <c r="AG8" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="b">
         <v>1</v>
       </c>
       <c r="AQ8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="W9" t="b">
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AD9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="b">
         <v>1</v>
       </c>
       <c r="AG9" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="AH9" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="b">
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AO9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="W10" t="b">
         <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="AD10" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="b">
         <v>1</v>
       </c>
       <c r="AG10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH10" t="s">
         <v>49</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>75</v>
       </c>
       <c r="AI10" t="b">
         <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AO10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="W11" t="b">
         <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="AD11" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="b">
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AH11" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="b">
         <v>1</v>
       </c>
       <c r="AK11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AO11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AX11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="W12" t="b">
         <v>1</v>
       </c>
       <c r="AA12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AD12" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AE12" t="b">
         <v>1</v>
       </c>
       <c r="AG12" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="AH12" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="b">
         <v>1</v>
       </c>
       <c r="AK12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AO12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AX12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="AD13" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AE13" t="b">
         <v>1</v>
       </c>
       <c r="AG13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AK13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AO13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AX13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14" t="s">
         <v>49</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>75</v>
       </c>
       <c r="AE14" t="b">
         <v>1</v>
       </c>
       <c r="AG14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AX14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="N15" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AD15" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AE15" t="b">
         <v>1</v>
       </c>
       <c r="AG15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AX15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AD16" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AE16" t="b">
         <v>1</v>
       </c>
       <c r="AG16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AX16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
+      <c r="S17" t="s">
+        <v>41</v>
+      </c>
       <c r="V17" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="W17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" t="s">
+        <v>41</v>
       </c>
       <c r="Z17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>41</v>
       </c>
       <c r="AP17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>41</v>
       </c>
       <c r="AT17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>41</v>
       </c>
       <c r="AX17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N18" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
       <c r="V18" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="W18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" t="s">
+        <v>41</v>
       </c>
       <c r="Z18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>41</v>
       </c>
       <c r="AP18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>41</v>
       </c>
       <c r="AT18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>41</v>
       </c>
       <c r="AX18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="N19" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
+      <c r="S19" t="s">
+        <v>41</v>
+      </c>
       <c r="V19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="W19" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" t="s">
+        <v>41</v>
       </c>
       <c r="Z19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>41</v>
       </c>
       <c r="AH19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>41</v>
       </c>
       <c r="AP19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>41</v>
       </c>
       <c r="AT19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>41</v>
       </c>
       <c r="AX19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N20" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
+      <c r="S20" t="s">
+        <v>41</v>
+      </c>
       <c r="V20" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="W20" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" t="s">
+        <v>41</v>
       </c>
       <c r="Z20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>41</v>
       </c>
       <c r="AH20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>41</v>
       </c>
       <c r="AL20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>41</v>
       </c>
       <c r="AP20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>41</v>
       </c>
       <c r="AT20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>41</v>
       </c>
       <c r="AX20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N21" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>67</v>
-      </c>
-      <c r="V21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AO21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AX21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" t="s">
-        <v>67</v>
-      </c>
       <c r="Y22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AO22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AX22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M23" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AQ23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AT23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AU23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AX23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" t="s">
-        <v>71</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="M25" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" t="s">
-        <v>72</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3544,4 +4400,2767 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY23"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="U1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="Y1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AC1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AG1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AK1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AO1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AS1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AW1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+    </row>
+    <row r="2" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W20" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AO1:AQ1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_input/data_structure.xlsx
+++ b/data_input/data_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" activeTab="3"/>
+    <workbookView xWindow="2710" yWindow="-120" windowWidth="50910" windowHeight="21840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="85">
   <si>
     <t>index</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>str</t>
+  </si>
+  <si>
+    <t>fuelmix</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -2047,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG23"/>
+  <dimension ref="A1:BK23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2066,7 +2075,7 @@
     <col min="49" max="49" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2145,8 +2154,13 @@
       </c>
       <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
-    </row>
-    <row r="2" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BI1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+    </row>
+    <row r="2" spans="1:63" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -2285,8 +2299,17 @@
       <c r="BG2" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="BI2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2425,8 +2448,17 @@
       <c r="BG3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="BI3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2565,8 +2597,17 @@
       <c r="BG4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="BI4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2705,8 +2746,17 @@
       <c r="BG5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="BI5" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2845,8 +2895,17 @@
       <c r="BG6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="BI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2938,7 +2997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2988,13 +3047,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="V8" t="s">
         <v>46</v>
       </c>
       <c r="W8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="s">
         <v>41</v>
@@ -3030,7 +3089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>41</v>
       </c>
@@ -3062,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
         <v>46</v>
@@ -3131,7 +3190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>41</v>
       </c>
@@ -3163,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
         <v>46</v>
@@ -3226,7 +3285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>41</v>
       </c>
@@ -3258,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
         <v>46</v>
@@ -3327,7 +3386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>41</v>
       </c>
@@ -3359,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
         <v>46</v>
@@ -3428,7 +3487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>41</v>
       </c>
@@ -3459,6 +3518,15 @@
       <c r="O13" t="b">
         <v>1</v>
       </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
       <c r="Y13" t="s">
         <v>41</v>
       </c>
@@ -3523,7 +3591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>41</v>
       </c>
@@ -3606,7 +3674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>41</v>
       </c>
@@ -3692,7 +3760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>41</v>
       </c>
@@ -4381,13 +4449,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="BI1:BK1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AK1:AM1"/>
@@ -6446,7 +6515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
